--- a/results/2017年第3季.xlsx
+++ b/results/2017年第3季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,7576 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>165</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>879,436</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>747,146</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>315,679</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>285,330</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-9,641</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>723,321</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-699,794</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-9,994</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>735,785</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,239,868</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>4,149,687</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6,400,057</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,037,188</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,341,465</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,158,225</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>795,646</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>241,247</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-4,886,267</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>495,288</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5,885,762</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>6,070,919</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>32,758,302</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15,771,921</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3,312,939</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2,093,833</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1,564,234</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5,762,849</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-599,846</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>169,011</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>4,438,769</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>42,142,958</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>38,237,148</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>83,925,908</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>412</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11,173,627</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2,969,019</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,777,430</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1,599,742</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2,167,591</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-178,808</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-2,881,625</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2,078,180</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>10,702,448</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2,852,801</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>35,481,538</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>668</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>500,246</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>292,373</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>188,262</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>156,181</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>180,237</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>40,564</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-139,140</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>178,921</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>674,173</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>24,696</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2,606,088</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>104</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15,747,168</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,407,627</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>736,193</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>688,512</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>535,269</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3,659,869</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-3,650,225</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>631,282</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>26,675,831</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,392,744</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>46,808,240</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-35,009</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-33,126</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-46,132</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>30,658</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>8,990</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-107,089</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>25,221</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-1.31</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-1.29</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>391,041</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,557,334</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4,403,726</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,664,231</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,228,047</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1,164,025</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1,100,577</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-648,033</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-810,048</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>329,559</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>10,010,469</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>13,989,611</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>29,500,636</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>93</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2,071,865</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>327,975</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>167,170</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>151,467</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>193,022</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-58,622</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-112,592</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>145,745</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2,788,671</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>980,593</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>4,948,030</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,994,956</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,271,226</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>916,485</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>722,488</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>755,776</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-347,967</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-1,373,927</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>395,276</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>9,784,128</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>14,353,101</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>34,360,614</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5,180,997</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>790,619</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>369,604</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>330,719</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>483,377</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-1,580,546</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1,022,100</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-853,986</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>6,495,248</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>6,052,012</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>13,257,164</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7,888,444</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,106,990</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>689,657</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>622,469</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1,112,151</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-1,091,261</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-797,906</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>518,381</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>21,724,451</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>16,167,438</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>80,292,480</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>267,636</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>56,642</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-7,723</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-4,321</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-17,651</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-2,277</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-8,240</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-19,027</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>447,134</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-0.54</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>384,699</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,255,699</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>195</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17,026,801</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6,529,388</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>491,689</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>528,026</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2,869,702</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-392,265</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-854,772</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2,461,016</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>21,796,095</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>9,992,187</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>26,915,868</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>494,859</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>105,696</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>18,016</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7,822</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>100,569</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-6,996</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-123,026</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>87,878</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2,146,665</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2,017,413</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>3,652,484</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2,084,649</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>708,366</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>484,465</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>410,418</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>812,043</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-1,850,744</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>843,734</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>40,999</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>6,212,707</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>8,948,209</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>15,995,349</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,803,075</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>905,454</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>249,023</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>217,435</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>7,815</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-95,451</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-40,482</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-40,424</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>7,187,907</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1,877,554</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>13,467,681</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>87</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>936,250</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>236,333</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28,616</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>30,117</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>36,258</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-37,705</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>35,535</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>3,307</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>584,889</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>268,470</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1,358,699</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>993,114</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-121,071</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-188,660</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-200,407</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-103,171</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-158,820</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>6,802</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-297,999</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>4,100,169</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-4.53</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>-2.27</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>5,646,869</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>8,424,630</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>83</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>499,954</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>170,090</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93,573</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>74,105</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>124,909</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-86,816</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-12,747</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>37,508</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>839,528</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>653,624</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2,205,154</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>402</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1,999,655</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>441,156</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>278,815</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>187,705</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>217,557</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>56,973</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>523,662</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>22,068</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>5,597,517</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2,375,891</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>8,638,964</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>65,210</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>41,413</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-9,313</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-9,535</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>4,710</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>3,592</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-2,272</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>4,320</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>110,909</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-2.25</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-1.78</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>127,073</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>529,279</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>377,339</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>101,224</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>53,875</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>45,406</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>115,422</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-16,189</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-337,021</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>98,936</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>297,170</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,145,689</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2,996,834</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,057,757</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>389,242</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2,067</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>28,989</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-282,157</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-84,781</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>597,593</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-424,749</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3,962,413</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>3,127,512</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>7,788,577</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>39</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4,979,149</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>576,121</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>186,742</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>207,502</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>208,171</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>128,211</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-617,914</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>181,263</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>3,735,326</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3,889,948</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>8,259,261</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8,327,127</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1,054,395</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>381,381</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>728,040</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>669,353</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-440,486</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>55,917</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>456,459</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>17,892,156</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>6,189,702</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>27,067,173</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>35.45</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2,464</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-48,941</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-50,806</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-25,903</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>13,811</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-25,277</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>108,528</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-6.71</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>-5.95</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>15,531</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>842,828</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3,994,860</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-2,031,544</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-2,156,301</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-2,141,554</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-27,785</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-77,105</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>130,704</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-120,488</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>14,738,617</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>-25.19</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>-9.22</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,499,129</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>22,170,771</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-2.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,665,978</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>500,594</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>304,527</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>241,808</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>301,043</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-82,496</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-162,967</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>299,702</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1,454,536</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>941,272</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>4,445,723</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1,048,988</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>226,208</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89,287</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>63,415</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>106,475</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-272,762</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-77,506</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>99,070</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1,792,970</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>166,159</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>3,333,949</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8,322,573</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,503,760</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>186,814</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>222,780</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1,432,093</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-194,285</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-902,810</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1,118,032</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>22,833,168</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>11,313,207</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>37,944,181</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>121,517</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7,437</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-578</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>16,930</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-2,531</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>9,030</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-3,076</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>228,058</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>364,305</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,829,735</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>144,749</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>52,585</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10,899</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>11,552</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-3,271</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-4,570</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>-37,215</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>-4,475</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>93,279</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>14,239</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>454,745</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>88,917,499</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8,405,393</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4,840,881</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4,248,765</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>13,642,440</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>4,247,746</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-14,131,992</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>9,241,610</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>345,919,100</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>416,809,673</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>673,015,855</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2,087,220</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>64,460</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-2,033</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-51,628</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>409,403</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-515,183</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>156,809</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-141,415</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>13,964,850</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-1.58</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>13,417,187</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>17,215,845</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>744,595</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>39,705</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25,540</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>148,247</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-53,597</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>197,228</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-134,967</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-61,601</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,754,527</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>898,400</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>5,407,470</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>472,164</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>263,068</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>73,032</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>60,501</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>81,721</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-8,649</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-130,327</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>73,186</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>597,180</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>777,993</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1,467,151</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>497,332</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>119,476</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78,359</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>57,133</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-1,008,828</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-162</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1,054,932</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>-1,009,037</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>5,160,868</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>22,700</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>7,517,611</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>212,872</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>29,851</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-1,746</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>20,110</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-27,466</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-21,121</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-40,059</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-33,558</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>166,918</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>238,466</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,065,611</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>431,800</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>99,574</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>50,319</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>43,179</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>64,985</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-19,856</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-99,986</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>52,222</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>246,374</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>250,657</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,654,292</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>281,323</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>78,647</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1,423</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>43,225</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-59,399</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>119,101</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-35,876</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>-62,029</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1,029,505</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>920,590</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1,832,532</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>331,951</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>81,131</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>5,341</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>11,568</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-371,545</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>22,149</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>23,270</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-374,006</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2,013,212</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>552,162</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>3,263,646</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>591,445</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>110,967</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>38,623</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>15,714</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>248,317</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-71,673</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-135,014</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>174,606</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,379,459</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>840,232</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2,791,154</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5,258,841</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,743,058</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>178,303</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>18,612</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>470,542</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-329,579</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-294,674</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>243,138</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>27,222,898</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>11,747,265</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>34,382,442</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1,507,813</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>491,799</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>52,819</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>65,969</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-49,230</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-518,174</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>648,062</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-54,699</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>6,576,018</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2,954,898</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>12,594,664</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>108,818,851</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>37,427,116</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>7,546,538</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8,507,839</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>13,796,379</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-14,138,114</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-20,475,466</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>10,412,392</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>204,937,669</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>143,268,740</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>359,783,043</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2,431,309</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>27,545</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-401,218</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-422,531</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>121,813</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-47,189</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>356,371</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>-179,375</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>8,578,728</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-2.62</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-1.57</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>12,667,973</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>24,498,800</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2,317,338</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>60,993</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-283,802</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-282,391</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>452,342</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>138,269</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-655,004</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>426,666</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>6,483,551</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-1.39</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>13,325,468</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>26,565,687</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>14.55</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>79,507,678</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>16,165,134</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>10,895,321</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8,757,318</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>12,839,517</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-4,130,860</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-9,464,004</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>7,741,709</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>122,216,657</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>192,924,285</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>382,763,519</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>13,293,362</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5,881,524</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>4,245,498</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8,548,358</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>5,323,862</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>12,734,804</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-16,552,119</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>-2,895,000</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>46,720,704</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>88,200,765</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>160,528,660</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>615,352</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>164,052</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92,178</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>13,851</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>119,888</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>106,890</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-207,992</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>119,347</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>7,706,560</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2,605,831</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>9,355,017</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1,078,891,633</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>62,942,317</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>18,715,944</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>19,665,150</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-60,202,350</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-11,927,443</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>84,173,127</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>-75,845,543</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,606,017,028</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>297,492,912</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2,762,654,636</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4,691,936</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>235,738</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>61,851</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>71,620</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>32,352</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-117,263</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>416,780</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>18,512</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>14,158,162</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,044,715</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>25,277,267</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>9,147,324</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4,588,942</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>395,711</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>369,025</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1,191,903</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-893,380</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-784,361</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>711,865</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>63,709,948</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>43,950,200</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>99,702,015</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1,927,077</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>791,377</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>449,964</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3,037,103</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>10,378</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>40,354</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-1,682,384</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>1,346</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>24,723,314</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1,635,501</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>65,443,068</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-58,502</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-474</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>-58,980</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>164,463</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>380,514</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,409,822</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>11,353,765</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2,060,743</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>635,845</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>434,789</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-108,586</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-908,697</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>780,554</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>-691,390</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>33,580,135</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>18,165,601</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>54,044,276</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>28,179,613</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5,762,758</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1,273,238</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1,054,088</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2,621,331</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-2,619,567</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-6,930,169</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>-37,981</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>91,569,764</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>104,625,417</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>173,440,419</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>56,424,903</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>20,769,535</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>12,416,532</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10,499,285</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>19,360,966</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-5,769,026</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-36,450,556</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>12,459,510</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>68,795,621</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>283,501,050</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>434,926,867</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4,838,315</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>764,061</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>177,089</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>160,062</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-178,873</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>679,394</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-440,593</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>-195,521</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>5,413,882</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2,123,045</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>13,960,146</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>42,991</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>30,055</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>4,322</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>59,426</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-106,496</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>39,986</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>57,685</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-106,496</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>10,689,091</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>18,616,839</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>153,458,327</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>26,787,079</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24,065,821</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>22,262,542</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>23,745,596</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1,309,511</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-60,591,773</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>20,715,048</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>93,004,295</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>108,568,257</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>415,186,471</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,524,264</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>472,274</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90,036</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>102,381</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>125,381</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-32,912</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-65,702</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>91,573</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4,523,450</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,060,910</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>10,087,574</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1,579,129</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>783,327</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>167,503</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>69,092</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>117,635</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-82,194</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>85,275</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>7,762,725</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1,881,091</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>15,736,435</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>6,025,201</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,376,063</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>520,122</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>591,095</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1,292,832</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-931,136</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-267,244</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>355,019</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>16,760,655</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>19,613,837</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>37,187,842</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>250</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>7,904,917</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,527,575</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>467,577</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1,691,823</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2,111,708</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>5,028,746</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-6,600,000</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>1,956,041</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>4,565,698</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,426,258</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>24,112,395</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>992,110</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>284,542</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>142,637</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>121,438</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>90,787</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-12,318</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-92,864</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>664,196</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>5,377,310</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>7,541,000</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>10,802,342</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>41,525,337</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4,516,311</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>3,021,467</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4,022,470</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>3,746,700</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-1,594,751</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-879,552</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>3,212,797</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>134,359,145</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>92,345,444</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>193,384,244</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>862,278</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-71,649</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-148,307</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-246,748</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>126,428</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-112,717</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-90,235</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>4,027</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>22,979,498</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-3.57</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>-0.37</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>27,770,396</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>29,736,040</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>56,373,797</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>14,313,135</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>5,461,595</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5,358,688</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>12,787,888</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-6,155,089</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-20,338,489</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>6,493,488</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>254,591,308</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>150,310,309</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>505,940,304</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>137,196</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>-11,038</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-36,858</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>103,665</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-7,454</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>212,261</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-214,074</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-31,645</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,304,698</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,720,703</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,439,811</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>579,839</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>195,921</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87,903</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>67,899</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>29,726</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-59,319</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-39,716</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-24,449</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>448,624</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>688,827</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1,995,472</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>37,698,201</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6,592,258</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1,629,086</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2,463,918</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>11,447,477</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-4,983,976</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-4,604,027</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>5,773,099</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>169,735,846</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>207,366,990</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>384,173,033</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,467,005</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>470,143</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>267,877</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>231,363</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>233,932</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-269,883</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-93,557</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>6,879</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>5,209,286</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,492,491</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10,677,449</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>327,356</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>72,248</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>16,579</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-13,173</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>376,956</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-2,555</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-357,063</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>371,513</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>335,867</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>959,050</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>3,635,458</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5,172,736</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,535,873</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>927,871</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>655,172</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2,175,846</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-1,377,052</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-946,373</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>670,943</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>17,379,144</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>27,304,429</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>41,748,060</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>100,255,625</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3,416,557</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1,380,644</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,950,728</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>10,932,030</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>406,648</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-5,428,938</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>10,727,237</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>92,679,030</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,811,204</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>137,928,117</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5,464,280</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>834,364</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>154,195</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>91,985</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>394,516</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-23,337</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-4,122</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>355,254</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>5,223,161</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,731,941</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>9,895,260</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>11,711,030</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1,074,546</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>432,681</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>454,463</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-506,382</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>199,181</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>127,289</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>-555,370</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>14,905,033</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>1,846,382</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>26,221,440</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>8,728,610</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>349,724</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>103,695</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>82,786</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-1,835,311</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-3,940</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1,519,659</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>-1,837,587</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>9,635,775</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>307,076</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>11,845,335</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>719,713</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>305,564</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>72,966</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>163,416</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>111,838</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>58,212</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-161,619</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>90,963</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1,717,688</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>5,492,709</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>11,343,081</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>797,220</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>159,791</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-125,894</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-144,806</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-85,919</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-28,480</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>94,764</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>-120,949</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>5,723,346</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-3.39</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>-1.25</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>7,120,085</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>9,927,993</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>155</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,735,931</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>598,720</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>314,055</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>264,267</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>973,213</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-41,652</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-931,465</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>909,117</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>3,574,884</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>3,081,291</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>7,052,971</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>318,108</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>286,354</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-46,371</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-86,052</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>30,304</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>25,121</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-184,491</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>-29,636</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>5,306,658</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-3.77</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>683,259</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>7,505,656</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>142</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>15,307,926</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3,509,010</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,680,575</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1,379,706</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1,343,063</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-668,385</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-1,463,854</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>653,481</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>16,131,726</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>14,110,399</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>30,456,598</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>14,948,234</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2,948,330</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>889,791</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>718,388</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>230,193</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>688,142</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1,040,891</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>-56,309</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>25,554,021</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>7,182,013</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>45,733,990</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>12,677,880</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2,913,818</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>751,494</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>947,830</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1,732,313</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>4,298</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-1,891,228</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1,597,065</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>35,224,778</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>17,766,470</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>92,620,331</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>969,919</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>133,989</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>27,926</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>38,017</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-17,912</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-14,770</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-34,958</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>-27,011</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,325,167</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>970,603</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>5,021,564</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5,566,181</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1,113,029</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>327,873</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>415,965</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-111,329</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-185,939</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-117,014</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>-239,360</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>14,872,904</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>6,153,703</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>37,090,855</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>231,608,520</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7,940,341</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2,920,521</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2,446,656</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-11,930,161</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-822,743</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>17,304,052</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>-12,753,434</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>264,610,208</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>18,593,627</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>372,092,182</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>114,471,318</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>16,755,960</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>3,050,520</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6,013,642</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-490,899</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2,053,338</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-11,367,339</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>-854,715</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>166,764,756</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>14,993,606</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>344,853,307</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>35,157,674</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4,080,736</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>728,600</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1,391,473</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>3,133,211</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-1,451,245</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-2,871,442</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>1,537,235</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>67,140,250</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>19,083,857</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>101,492,859</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>221</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>11,202,795</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4,370,751</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,727,961</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,597,730</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2,180,931</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>3,063,720</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-4,080,840</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2,000,841</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>12,626,401</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>10,038,180</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>38,797,157</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>41</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>17,057,666</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3,277,251</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>975,712</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1,109,290</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2,744,061</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-321,143</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-1,565,883</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2,653,291</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>14,719,699</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>3,858,292</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>37,975,718</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>17</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>150,432</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>38,430</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-5,717</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>-910</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>37,058</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-56,426</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>37,058</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>400,333</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>5,594</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,082,369</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>29</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,555,512</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>235,637</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>80,996</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>72,174</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>242,688</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-104,698</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-197,535</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>239,130</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,523,764</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>450,968</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>5,619,235</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>226,386</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>189,834</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-68,748</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-70,723</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>3,402</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-4,306</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>225,830</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>-5.01</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>-4.32</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>35,164</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>1,600,183</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
